--- a/documents/Q&A.xlsx
+++ b/documents/Q&A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>1. Khi người dùng nhập quá ngân sách đã được định ra ở trước đó thì sẽ xử lý như thế nào?</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Để người sử dụng quyết định là sẽ gia hạn hay không gia hạn cho nó. Nếu không mặc định là không gia hạn</t>
+  </si>
+  <si>
+    <t>Ở thu nhập sẽ vẫn hiện "Ngân sách còn lại..."?</t>
+  </si>
+  <si>
+    <t>Nếu tháng đấy người dùng không nhập schedule thì sẽ hiện thị thế nào?</t>
+  </si>
+  <si>
+    <t>Sao để phân biệt được đấy là ngân sách của tuần hay ngân sách của tháng?</t>
   </si>
 </sst>
 </file>
@@ -147,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,6 +229,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,27 +669,48 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Q&A.xlsx
+++ b/documents/Q&A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,13 +126,13 @@
     <t>Để người sử dụng quyết định là sẽ gia hạn hay không gia hạn cho nó. Nếu không mặc định là không gia hạn</t>
   </si>
   <si>
-    <t>Ở thu nhập sẽ vẫn hiện "Ngân sách còn lại..."?</t>
-  </si>
-  <si>
-    <t>Nếu tháng đấy người dùng không nhập schedule thì sẽ hiện thị thế nào?</t>
-  </si>
-  <si>
-    <t>Sao để phân biệt được đấy là ngân sách của tuần hay ngân sách của tháng?</t>
+    <t>Trong phần detail view của management, làm sao để phân biệt được đấy là ngân sách của tuần hay ngân sách của tháng?</t>
+  </si>
+  <si>
+    <t>Trong phần detail view của management, nếu tháng đấy người dùng không nhập schedule thì sẽ hiện thị thế nào?</t>
+  </si>
+  <si>
+    <t>Trong phần detail view của management, ở thu nhập sẽ vẫn hiện "Ngân sách còn lại..."?</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="14" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="16" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>

--- a/documents/Q&A.xlsx
+++ b/documents/Q&A.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>1. Khi người dùng nhập quá ngân sách đã được định ra ở trước đó thì sẽ xử lý như thế nào?</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Trong phần detail view của management, ở thu nhập sẽ vẫn hiện "Ngân sách còn lại..."?</t>
+  </si>
+  <si>
+    <t>Trong phần delete report sẽ thực hiện theo hướng nào? Ẩn report hay delete data.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,6 +234,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +720,13 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Q&A.xlsx
+++ b/documents/Q&A.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>1. Khi người dùng nhập quá ngân sách đã được định ra ở trước đó thì sẽ xử lý như thế nào?</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Trong phần delete report sẽ thực hiện theo hướng nào? Ẩn report hay delete data.</t>
+  </si>
+  <si>
+    <t>Ý nghĩa của khoảng cuối màn hình trong design là 1 report sơ lược. Vì chưa nghĩ ra được ý tưởng hiển thị những gì nên tạm thời sẽ để như trong design. Có thể sau này sẽ thêm phần chart vào đó (bar chart)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi so sánh giữa thực tế và schedule thì sẽ ưu tiên so sánh schedule tuần, sau đó mới đến tháng còn nếu không có cả 2 thì không cần dòng "Ngân sách còn lại" </t>
+  </si>
+  <si>
+    <t>Có thể đổi lại thành "Ngân sách tuần còn lại" hoặc "Ngân sách tháng còn lại". Ưu tiên cho ngân sách tuần như câu trên đã trả lời</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete record </t>
   </si>
 </sst>
 </file>
@@ -206,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,9 +249,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,29 +713,45 @@
       <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:4" s="10" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Q&A.xlsx
+++ b/documents/Q&A.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5115"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>1. Khi người dùng nhập quá ngân sách đã được định ra ở trước đó thì sẽ xử lý như thế nào?</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">Delete record </t>
+  </si>
+  <si>
+    <t>Với bar chart, các phần trong cột thể hiện khoản chi không hay thể hiện cả khoảng income? Các cột thể hiện điều gì? Thể hiện từng tháng một hay từng ngày một?</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +754,11 @@
       </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Q&A.xlsx
+++ b/documents/Q&A.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5115"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>1. Khi người dùng nhập quá ngân sách đã được định ra ở trước đó thì sẽ xử lý như thế nào?</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Với bar chart, các phần trong cột thể hiện khoản chi không hay thể hiện cả khoảng income? Các cột thể hiện điều gì? Thể hiện từng tháng một hay từng ngày một?</t>
+  </si>
+  <si>
+    <t>Các loại biểu đồ của mình chỉ thể hiện các khoản chi phí, không phải thể hiện các khoản thu. Còn câu hỏi các cột thể hiện điều gì. Cái này tùy thuộc vào báo cáo theo tuần hay theo tháng, báo cáo theo tuần thì thể hiện từng tuần, báo cáo theo tháng thì thể hiện từng tháng</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +762,12 @@
     <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
